--- a/Public/template/template_jysj.xlsx
+++ b/Public/template/template_jysj.xlsx
@@ -45,200 +45,201 @@
     <t>在册学生学期状态表（国际班课程）</t>
   </si>
   <si>
+    <t>总人数</t>
+  </si>
+  <si>
+    <t>未进班</t>
+  </si>
+  <si>
+    <t>预报名</t>
+  </si>
+  <si>
+    <t>停读（预计可复学）</t>
+  </si>
+  <si>
+    <t>停读（预计不可复学已结算续费）</t>
+  </si>
+  <si>
+    <t>实际在班人数</t>
+  </si>
+  <si>
+    <t>K01</t>
+  </si>
+  <si>
+    <t>K02</t>
+  </si>
+  <si>
+    <t>K03</t>
+  </si>
+  <si>
+    <t>K04</t>
+  </si>
+  <si>
+    <t>K05</t>
+  </si>
+  <si>
+    <t>K06</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P02</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P1A</t>
+  </si>
+  <si>
+    <t>P1B</t>
+  </si>
+  <si>
+    <t>P2A</t>
+  </si>
+  <si>
+    <t>P2B</t>
+  </si>
+  <si>
+    <t>P3A</t>
+  </si>
+  <si>
+    <t>P3B</t>
+  </si>
+  <si>
+    <t>P4A</t>
+  </si>
+  <si>
+    <t>P4B</t>
+  </si>
+  <si>
+    <t>P5A</t>
+  </si>
+  <si>
+    <t>P5B</t>
+  </si>
+  <si>
+    <t>P6A</t>
+  </si>
+  <si>
+    <t>P6B</t>
+  </si>
+  <si>
+    <t>J1A</t>
+  </si>
+  <si>
+    <t>J1B</t>
+  </si>
+  <si>
+    <t>J2A</t>
+  </si>
+  <si>
+    <t>J2B</t>
+  </si>
+  <si>
+    <t>J3A</t>
+  </si>
+  <si>
+    <t>J3B</t>
+  </si>
+  <si>
+    <t>一对一</t>
+  </si>
+  <si>
+    <t>NS1</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>本月初在册学生人数（包含未进班、停课）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   加：本月新生人数</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 其他学校转入</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 流失回来学生</t>
+  </si>
+  <si>
+    <t>减：本月流失学生人数（不含退费）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 本月退费学生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      转校学生</t>
+  </si>
+  <si>
+    <t>等于：本月底在册学生人数（包含未进班、停课）</t>
+  </si>
+  <si>
+    <t>二、</t>
+  </si>
+  <si>
+    <t>班级重要数据</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>当月数据（包含市场部新开班级，不包含停读及进班人数）</t>
+  </si>
+  <si>
+    <t>当月班级数</t>
+  </si>
+  <si>
+    <t>人数总计</t>
+  </si>
+  <si>
+    <t>班级饱和率</t>
+  </si>
+  <si>
+    <t>各班型在读人数统计</t>
+  </si>
+  <si>
+    <t>幼儿班</t>
+  </si>
+  <si>
+    <t>小学周末白天班</t>
+  </si>
+  <si>
+    <t>中学班</t>
+  </si>
+  <si>
+    <t>小学平时1.5小时班</t>
+  </si>
+  <si>
+    <t>小学平时2小时班</t>
+  </si>
+  <si>
+    <t>小学平时2.5小时班</t>
+  </si>
+  <si>
+    <t>小学平时3小时班</t>
+  </si>
+  <si>
+    <t>周日晚上</t>
+  </si>
+  <si>
+    <t>周五晚上</t>
+  </si>
+  <si>
+    <t>周六晚上</t>
+  </si>
+  <si>
     <t xml:space="preserve">    年级
 班级</t>
-  </si>
-  <si>
-    <t>总人数</t>
-  </si>
-  <si>
-    <t>未进班</t>
-  </si>
-  <si>
-    <t>预报名</t>
-  </si>
-  <si>
-    <t>停读（预计可复学）</t>
-  </si>
-  <si>
-    <t>停读（预计不可复学已结算续费）</t>
-  </si>
-  <si>
-    <t>实际在班人数</t>
-  </si>
-  <si>
-    <t>K01</t>
-  </si>
-  <si>
-    <t>K02</t>
-  </si>
-  <si>
-    <t>K03</t>
-  </si>
-  <si>
-    <t>K04</t>
-  </si>
-  <si>
-    <t>K05</t>
-  </si>
-  <si>
-    <t>K06</t>
-  </si>
-  <si>
-    <t>P01</t>
-  </si>
-  <si>
-    <t>P02</t>
-  </si>
-  <si>
-    <t>P03</t>
-  </si>
-  <si>
-    <t>P1A</t>
-  </si>
-  <si>
-    <t>P1B</t>
-  </si>
-  <si>
-    <t>P2A</t>
-  </si>
-  <si>
-    <t>P2B</t>
-  </si>
-  <si>
-    <t>P3A</t>
-  </si>
-  <si>
-    <t>P3B</t>
-  </si>
-  <si>
-    <t>P4A</t>
-  </si>
-  <si>
-    <t>P4B</t>
-  </si>
-  <si>
-    <t>P5A</t>
-  </si>
-  <si>
-    <t>P5B</t>
-  </si>
-  <si>
-    <t>P6A</t>
-  </si>
-  <si>
-    <t>P6B</t>
-  </si>
-  <si>
-    <t>J1A</t>
-  </si>
-  <si>
-    <t>J1B</t>
-  </si>
-  <si>
-    <t>J2A</t>
-  </si>
-  <si>
-    <t>J2B</t>
-  </si>
-  <si>
-    <t>J3A</t>
-  </si>
-  <si>
-    <t>J3B</t>
-  </si>
-  <si>
-    <t>一对一</t>
-  </si>
-  <si>
-    <t>NS1</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>项目</t>
-  </si>
-  <si>
-    <t>人数</t>
-  </si>
-  <si>
-    <t>本月初在册学生人数（包含未进班、停课）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   加：本月新生人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 其他学校转入</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 流失回来学生</t>
-  </si>
-  <si>
-    <t>减：本月流失学生人数（不含退费）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 本月退费学生</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      转校学生</t>
-  </si>
-  <si>
-    <t>等于：本月底在册学生人数（包含未进班、停课）</t>
-  </si>
-  <si>
-    <t>二、</t>
-  </si>
-  <si>
-    <t>班级重要数据</t>
-  </si>
-  <si>
-    <t>部门</t>
-  </si>
-  <si>
-    <t>当月数据（包含市场部新开班级，不包含停读及进班人数）</t>
-  </si>
-  <si>
-    <t>当月班级数</t>
-  </si>
-  <si>
-    <t>人数总计</t>
-  </si>
-  <si>
-    <t>班级饱和率</t>
-  </si>
-  <si>
-    <t>各班型在读人数统计</t>
-  </si>
-  <si>
-    <t>幼儿班</t>
-  </si>
-  <si>
-    <t>小学周末白天班</t>
-  </si>
-  <si>
-    <t>中学班</t>
-  </si>
-  <si>
-    <t>小学平时1.5小时班</t>
-  </si>
-  <si>
-    <t>小学平时2小时班</t>
-  </si>
-  <si>
-    <t>小学平时2.5小时班</t>
-  </si>
-  <si>
-    <t>小学平时3小时班</t>
-  </si>
-  <si>
-    <t>周日晚上</t>
-  </si>
-  <si>
-    <t>周五晚上</t>
-  </si>
-  <si>
-    <t>周六晚上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -505,7 +506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
@@ -529,9 +530,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -676,6 +674,36 @@
     <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -684,36 +712,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1025,32 +1023,35 @@
   <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="22.5">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
@@ -1160,7 +1161,7 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="70"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1202,7 +1203,7 @@
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="70"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1240,11 +1241,11 @@
       <c r="AL5" s="2"/>
     </row>
     <row r="6" spans="1:39">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="5"/>
@@ -1325,10 +1326,10 @@
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="8"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="8"/>
@@ -1370,11 +1371,11 @@
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="5"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12">
         <v>0</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1413,11 +1414,11 @@
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="5"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12">
         <v>0</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1456,11 +1457,11 @@
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="5"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12">
         <v>0</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1499,11 +1500,11 @@
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="5"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12">
         <v>0</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1542,11 +1543,11 @@
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="5"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12">
         <v>0</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1585,11 +1586,11 @@
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="5"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12">
         <v>0</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1628,11 +1629,11 @@
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="5"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12">
         <v>0</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -1671,11 +1672,11 @@
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="5"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12">
         <v>0</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1714,11 +1715,11 @@
     </row>
     <row r="17" spans="1:40">
       <c r="A17" s="5"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12">
         <v>0</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1758,11 +1759,11 @@
     </row>
     <row r="18" spans="1:40">
       <c r="A18" s="5"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12">
         <v>0</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -1802,11 +1803,11 @@
     </row>
     <row r="19" spans="1:40">
       <c r="A19" s="5"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="13">
+      <c r="B19" s="14"/>
+      <c r="C19" s="12">
         <v>0</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -1846,11 +1847,11 @@
     </row>
     <row r="20" spans="1:40">
       <c r="A20" s="5"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="13">
+      <c r="B20" s="14"/>
+      <c r="C20" s="12">
         <v>0</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1890,17 +1891,17 @@
     </row>
     <row r="21" spans="1:40">
       <c r="A21" s="5"/>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <v>0</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -2022,10 +2023,10 @@
       <c r="A24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -2065,659 +2066,659 @@
       <c r="AN24" s="1"/>
     </row>
     <row r="25" spans="1:40" ht="54">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="D25" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="F25" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="G25" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="H25" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="I25" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="J25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="K25" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="24" t="s">
+      <c r="L25" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="24" t="s">
+      <c r="M25" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M25" s="24" t="s">
+      <c r="N25" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="24" t="s">
+      <c r="O25" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="O25" s="24" t="s">
+      <c r="P25" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="P25" s="24" t="s">
+      <c r="Q25" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="Q25" s="24" t="s">
+      <c r="R25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="R25" s="24" t="s">
+      <c r="S25" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="S25" s="24" t="s">
+      <c r="T25" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="T25" s="24" t="s">
+      <c r="U25" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="U25" s="24" t="s">
+      <c r="V25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="V25" s="24" t="s">
+      <c r="W25" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="W25" s="24" t="s">
+      <c r="X25" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="X25" s="24" t="s">
+      <c r="Y25" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="Y25" s="24" t="s">
+      <c r="Z25" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="Z25" s="24" t="s">
+      <c r="AA25" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AA25" s="24" t="s">
+      <c r="AB25" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="AB25" s="24" t="s">
+      <c r="AC25" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AC25" s="24" t="s">
+      <c r="AD25" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AD25" s="24" t="s">
+      <c r="AE25" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AE25" s="24" t="s">
+      <c r="AF25" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AF25" s="24" t="s">
+      <c r="AG25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AG25" s="24" t="s">
+      <c r="AH25" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AH25" s="24" t="s">
+      <c r="AI25" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AI25" s="24" t="s">
+      <c r="AJ25" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AJ25" s="24" t="s">
+      <c r="AK25" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AK25" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL25" s="25"/>
-      <c r="AM25" s="25"/>
+      <c r="AL25" s="24"/>
+      <c r="AM25" s="24"/>
       <c r="AN25" s="1"/>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" s="26"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="28"/>
-      <c r="AM26" s="28"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="27"/>
       <c r="AN26" s="1"/>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" s="26"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
-      <c r="AK27" s="28"/>
-      <c r="AL27" s="28"/>
-      <c r="AM27" s="28"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
       <c r="AN27" s="1"/>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" s="26"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
-      <c r="AK28" s="28"/>
-      <c r="AL28" s="28"/>
-      <c r="AM28" s="28"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="27"/>
       <c r="AN28" s="1"/>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" s="26"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
-      <c r="AK29" s="28"/>
-      <c r="AL29" s="28"/>
-      <c r="AM29" s="28"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="27"/>
       <c r="AN29" s="1"/>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" s="26"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="28"/>
-      <c r="AK30" s="28"/>
-      <c r="AL30" s="28"/>
-      <c r="AM30" s="28"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="27"/>
       <c r="AN30" s="1"/>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" s="26"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="28"/>
-      <c r="AK31" s="28"/>
-      <c r="AL31" s="28"/>
-      <c r="AM31" s="28"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="27"/>
       <c r="AN31" s="1"/>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" s="26"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="28"/>
-      <c r="AJ32" s="28"/>
-      <c r="AK32" s="28"/>
-      <c r="AL32" s="28"/>
-      <c r="AM32" s="28"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="27"/>
+      <c r="AI32" s="27"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="27"/>
+      <c r="AL32" s="27"/>
+      <c r="AM32" s="27"/>
       <c r="AN32" s="1"/>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" s="26"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="28"/>
-      <c r="AI33" s="28"/>
-      <c r="AJ33" s="28"/>
-      <c r="AK33" s="28"/>
-      <c r="AL33" s="28"/>
-      <c r="AM33" s="28"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="27"/>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="27"/>
       <c r="AN33" s="1"/>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" s="26"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="28"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
-      <c r="AK34" s="28"/>
-      <c r="AL34" s="28"/>
-      <c r="AM34" s="28"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="27"/>
+      <c r="AI34" s="27"/>
+      <c r="AJ34" s="27"/>
+      <c r="AK34" s="27"/>
+      <c r="AL34" s="27"/>
+      <c r="AM34" s="27"/>
       <c r="AN34" s="1"/>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" s="26"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="28"/>
-      <c r="AH35" s="28"/>
-      <c r="AI35" s="28"/>
-      <c r="AJ35" s="28"/>
-      <c r="AK35" s="28"/>
-      <c r="AL35" s="28"/>
-      <c r="AM35" s="28"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="27"/>
+      <c r="AH35" s="27"/>
+      <c r="AI35" s="27"/>
+      <c r="AJ35" s="27"/>
+      <c r="AK35" s="27"/>
+      <c r="AL35" s="27"/>
+      <c r="AM35" s="27"/>
       <c r="AN35" s="1"/>
     </row>
     <row r="36" spans="1:40">
       <c r="A36" s="5"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="27"/>
-      <c r="AF36" s="27"/>
-      <c r="AG36" s="27"/>
-      <c r="AH36" s="27"/>
-      <c r="AI36" s="27"/>
-      <c r="AJ36" s="27"/>
-      <c r="AK36" s="27"/>
-      <c r="AL36" s="27"/>
-      <c r="AM36" s="27"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="26"/>
+      <c r="AM36" s="26"/>
       <c r="AN36" s="1"/>
     </row>
     <row r="37" spans="1:40">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="26"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="30"/>
+      <c r="F37" s="29"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="30"/>
-      <c r="AC37" s="30"/>
-      <c r="AD37" s="30"/>
-      <c r="AE37" s="30"/>
-      <c r="AF37" s="30"/>
-      <c r="AG37" s="30"/>
-      <c r="AH37" s="30"/>
-      <c r="AI37" s="30"/>
-      <c r="AJ37" s="30"/>
-      <c r="AK37" s="30"/>
-      <c r="AL37" s="30"/>
-      <c r="AM37" s="30"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="29"/>
+      <c r="AI37" s="29"/>
+      <c r="AJ37" s="29"/>
+      <c r="AK37" s="29"/>
+      <c r="AL37" s="29"/>
+      <c r="AM37" s="29"/>
       <c r="AN37" s="1"/>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" s="31"/>
-      <c r="B38" s="59" t="s">
+      <c r="A38" s="30"/>
+      <c r="B38" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="68"/>
+      <c r="D38" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="31"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
@@ -2730,18 +2731,18 @@
     </row>
     <row r="39" spans="1:40">
       <c r="A39" s="5"/>
-      <c r="B39" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
+      <c r="B39" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="69"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -2775,17 +2776,17 @@
     <row r="40" spans="1:40">
       <c r="A40" s="5"/>
       <c r="B40" s="61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="61"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -2818,18 +2819,18 @@
     </row>
     <row r="41" spans="1:40">
       <c r="A41" s="5"/>
-      <c r="B41" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
+      <c r="B41" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="59"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -2862,18 +2863,18 @@
     </row>
     <row r="42" spans="1:40">
       <c r="A42" s="5"/>
-      <c r="B42" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
+      <c r="B42" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="59"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -2906,18 +2907,18 @@
     </row>
     <row r="43" spans="1:40">
       <c r="A43" s="5"/>
-      <c r="B43" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="64"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
+      <c r="B43" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="60"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -2950,18 +2951,18 @@
     </row>
     <row r="44" spans="1:40">
       <c r="A44" s="5"/>
-      <c r="B44" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
+      <c r="B44" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="59"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -2995,17 +2996,17 @@
     <row r="45" spans="1:40">
       <c r="A45" s="5"/>
       <c r="B45" s="61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="61"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -3038,18 +3039,18 @@
     </row>
     <row r="46" spans="1:40">
       <c r="A46" s="5"/>
-      <c r="B46" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="64"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
+      <c r="B46" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="60"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -3082,17 +3083,17 @@
     </row>
     <row r="47" spans="1:40">
       <c r="A47" s="5"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
@@ -3166,40 +3167,40 @@
     </row>
     <row r="49" spans="1:39">
       <c r="A49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="20"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="20"/>
-      <c r="AA49" s="20"/>
-      <c r="AB49" s="20"/>
-      <c r="AC49" s="20"/>
-      <c r="AD49" s="20"/>
-      <c r="AE49" s="20"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="19"/>
+      <c r="AD49" s="19"/>
+      <c r="AE49" s="19"/>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
@@ -3210,22 +3211,22 @@
       <c r="AM49" s="2"/>
     </row>
     <row r="50" spans="1:39" ht="14.25" customHeight="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="65" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="68"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -3236,24 +3237,24 @@
       <c r="T50" s="2"/>
     </row>
     <row r="51" spans="1:39" ht="27">
-      <c r="A51" s="21"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="24" t="s">
+      <c r="A51" s="20"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="E51" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -3264,18 +3265,18 @@
       <c r="T51" s="2"/>
     </row>
     <row r="52" spans="1:39">
-      <c r="A52" s="21"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -3286,18 +3287,18 @@
       <c r="T52" s="2"/>
     </row>
     <row r="53" spans="1:39">
-      <c r="A53" s="42"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -3308,18 +3309,18 @@
       <c r="T53" s="2"/>
     </row>
     <row r="54" spans="1:39">
-      <c r="A54" s="42"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -3330,18 +3331,18 @@
       <c r="T54" s="2"/>
     </row>
     <row r="55" spans="1:39">
-      <c r="A55" s="42"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -3352,18 +3353,18 @@
       <c r="T55" s="2"/>
     </row>
     <row r="56" spans="1:39">
-      <c r="A56" s="42"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -3374,18 +3375,18 @@
       <c r="T56" s="2"/>
     </row>
     <row r="57" spans="1:39">
-      <c r="A57" s="42"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -3397,16 +3398,16 @@
     </row>
     <row r="58" spans="1:39">
       <c r="A58" s="5"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="36"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="35"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
@@ -3438,32 +3439,32 @@
     </row>
     <row r="59" spans="1:39">
       <c r="A59" s="5"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="63"/>
-      <c r="K59" s="63"/>
-      <c r="L59" s="63"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="47"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="47"/>
-      <c r="T59" s="47"/>
-      <c r="U59" s="47"/>
-      <c r="V59" s="47"/>
-      <c r="W59" s="47"/>
-      <c r="X59" s="47"/>
-      <c r="Y59" s="47"/>
-      <c r="Z59" s="47"/>
-      <c r="AA59" s="47"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="58"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="46"/>
+      <c r="X59" s="46"/>
+      <c r="Y59" s="46"/>
+      <c r="Z59" s="46"/>
+      <c r="AA59" s="46"/>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
@@ -3478,85 +3479,85 @@
       <c r="AM59" s="2"/>
     </row>
     <row r="60" spans="1:39" ht="40.5">
-      <c r="A60" s="48"/>
-      <c r="B60" s="49" t="s">
+      <c r="A60" s="47"/>
+      <c r="B60" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="D60" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D60" s="50" t="s">
+      <c r="E60" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="F60" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="51" t="s">
+      <c r="G60" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="G60" s="51" t="s">
+      <c r="H60" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="H60" s="51" t="s">
+      <c r="I60" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="I60" s="51" t="s">
+      <c r="J60" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="J60" s="51" t="s">
+      <c r="K60" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="K60" s="51" t="s">
+      <c r="L60" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="L60" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="M60" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="N60" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="48"/>
-      <c r="S60" s="48"/>
-      <c r="T60" s="48"/>
-      <c r="U60" s="48"/>
-      <c r="V60" s="48"/>
-      <c r="W60" s="48"/>
-      <c r="X60" s="48"/>
-      <c r="Y60" s="48"/>
-      <c r="Z60" s="48"/>
-      <c r="AA60" s="48"/>
-      <c r="AB60" s="48"/>
-      <c r="AC60" s="48"/>
-      <c r="AD60" s="48"/>
-      <c r="AE60" s="48"/>
-      <c r="AF60" s="48"/>
+      <c r="M60" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="N60" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O60" s="51"/>
+      <c r="P60" s="51"/>
+      <c r="Q60" s="47"/>
+      <c r="R60" s="47"/>
+      <c r="S60" s="47"/>
+      <c r="T60" s="47"/>
+      <c r="U60" s="47"/>
+      <c r="V60" s="47"/>
+      <c r="W60" s="47"/>
+      <c r="X60" s="47"/>
+      <c r="Y60" s="47"/>
+      <c r="Z60" s="47"/>
+      <c r="AA60" s="47"/>
+      <c r="AB60" s="47"/>
+      <c r="AC60" s="47"/>
+      <c r="AD60" s="47"/>
+      <c r="AE60" s="47"/>
+      <c r="AF60" s="47"/>
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
     </row>
     <row r="61" spans="1:39">
       <c r="A61" s="5"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="53"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="57"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="53"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
@@ -3579,21 +3580,21 @@
     </row>
     <row r="62" spans="1:39">
       <c r="A62" s="5"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="53"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="57"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="54"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="53"/>
+      <c r="P62" s="53"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
@@ -3616,21 +3617,21 @@
     </row>
     <row r="63" spans="1:39">
       <c r="A63" s="5"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="57"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="54"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="53"/>
+      <c r="P63" s="53"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
@@ -3653,21 +3654,21 @@
     </row>
     <row r="64" spans="1:39">
       <c r="A64" s="5"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="53"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="53"/>
+      <c r="P64" s="53"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
@@ -3690,21 +3691,21 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="5"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
-      <c r="N65" s="57"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="54"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="53"/>
+      <c r="P65" s="53"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
@@ -3727,21 +3728,21 @@
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="5"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="56"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
@@ -3764,6 +3765,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="F59:J59"/>
     <mergeCell ref="K59:L59"/>
     <mergeCell ref="B42:C42"/>
@@ -3773,11 +3779,6 @@
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Public/template/template_jysj.xlsx
+++ b/Public/template/template_jysj.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>2017年07月天河天府路中心教学部经营数据汇总表</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t xml:space="preserve">      转校学生</t>
-  </si>
-  <si>
-    <t>等于：本月底在册学生人数（包含未进班、停课）</t>
   </si>
   <si>
     <t>二、</t>
@@ -239,6 +236,38 @@
   <si>
     <t xml:space="preserve">    年级
 班级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C57</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C36</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D46</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>H36</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于：本月底在册学生人数（包含未进班、停课）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N66</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D57</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -246,12 +275,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +356,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -506,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
@@ -677,6 +716,18 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -712,6 +763,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1023,7 +1077,7 @@
   <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1032,26 +1086,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="22.5">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
@@ -1336,8 +1390,12 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -1379,9 +1437,18 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="H9" s="61">
+        <f>C57</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="61">
+        <f>C21</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="59" t="str">
+        <f>IF(H9=I9,"对","不对")</f>
+        <v>对</v>
+      </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -1465,8 +1532,12 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="H11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1508,9 +1579,18 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="H12" s="74">
+        <f>C36</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="74">
+        <f>D46</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="60" t="str">
+        <f>IF(H12=I12,"对","不对")</f>
+        <v>对</v>
+      </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1594,9 +1674,15 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="H14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -1637,10 +1723,22 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="H15" s="74">
+        <f>H36</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="74">
+        <f>D57</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="74">
+        <f>N66</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="60" t="str">
+        <f>IF(AND(H15=I15,I15=J15),"对","不对")</f>
+        <v>对</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -1680,8 +1778,8 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -1723,8 +1821,8 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -2068,7 +2166,7 @@
     <row r="25" spans="1:40" ht="54">
       <c r="A25" s="20"/>
       <c r="B25" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>9</v>
@@ -2685,10 +2783,10 @@
     </row>
     <row r="38" spans="1:40">
       <c r="A38" s="30"/>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="68"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="31" t="s">
         <v>46</v>
       </c>
@@ -2731,10 +2829,10 @@
     </row>
     <row r="39" spans="1:40">
       <c r="A39" s="5"/>
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="69"/>
+      <c r="C39" s="73"/>
       <c r="D39" s="28"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
@@ -2775,10 +2873,10 @@
     </row>
     <row r="40" spans="1:40">
       <c r="A40" s="5"/>
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="61"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="27"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
@@ -2819,10 +2917,10 @@
     </row>
     <row r="41" spans="1:40">
       <c r="A41" s="5"/>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="59"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="27"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
@@ -2863,10 +2961,10 @@
     </row>
     <row r="42" spans="1:40">
       <c r="A42" s="5"/>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="59"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="27"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
@@ -2907,10 +3005,10 @@
     </row>
     <row r="43" spans="1:40">
       <c r="A43" s="5"/>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="60"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="27"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
@@ -2951,10 +3049,10 @@
     </row>
     <row r="44" spans="1:40">
       <c r="A44" s="5"/>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="59"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="27"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
@@ -2995,10 +3093,10 @@
     </row>
     <row r="45" spans="1:40">
       <c r="A45" s="5"/>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="61"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="27"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
@@ -3039,10 +3137,10 @@
     </row>
     <row r="46" spans="1:40">
       <c r="A46" s="5"/>
-      <c r="B46" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="60"/>
+      <c r="B46" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="64"/>
       <c r="D46" s="26"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
@@ -3167,10 +3265,10 @@
     </row>
     <row r="49" spans="1:39">
       <c r="A49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
@@ -3212,14 +3310,14 @@
     </row>
     <row r="50" spans="1:39" ht="14.25" customHeight="1">
       <c r="A50" s="20"/>
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="65"/>
-      <c r="E50" s="66"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="70"/>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
@@ -3238,15 +3336,15 @@
     </row>
     <row r="51" spans="1:39" ht="27">
       <c r="A51" s="20"/>
-      <c r="B51" s="63"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="E51" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
@@ -3443,13 +3541,13 @@
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="58"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="62"/>
+      <c r="L59" s="62"/>
       <c r="M59" s="46"/>
       <c r="N59" s="46"/>
       <c r="O59" s="46"/>
@@ -3481,37 +3579,37 @@
     <row r="60" spans="1:39" ht="40.5">
       <c r="A60" s="47"/>
       <c r="B60" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="D60" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="E60" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E60" s="49" t="s">
+      <c r="F60" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F60" s="50" t="s">
+      <c r="G60" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="G60" s="50" t="s">
+      <c r="H60" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="H60" s="50" t="s">
+      <c r="I60" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="I60" s="50" t="s">
+      <c r="J60" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="J60" s="50" t="s">
+      <c r="K60" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="K60" s="50" t="s">
+      <c r="L60" s="50" t="s">
         <v>71</v>
-      </c>
-      <c r="L60" s="50" t="s">
-        <v>72</v>
       </c>
       <c r="M60" s="49" t="s">
         <v>42</v>
